--- a/MNIST_5_Models_comparison_calculation.xlsx
+++ b/MNIST_5_Models_comparison_calculation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INuren Course notes and Assignments\CNN_assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INuren Course notes and Assignments\CNN_assignments\MNIST_5models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB101BA9-2D26-44EB-8BEE-6929305E61D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897AC79D-87A8-4F36-80CF-A31477145905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B05FCFF-B82E-4E74-89DB-A819FEDFAB68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{2B05FCFF-B82E-4E74-89DB-A819FEDFAB68}"/>
   </bookViews>
   <sheets>
     <sheet name="Model-1" sheetId="1" r:id="rId1"/>
@@ -742,12 +742,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -771,9 +768,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,13 +778,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,20 +808,57 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
@@ -866,6 +893,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -891,6 +919,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -925,6 +954,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -961,6 +991,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -999,6 +1030,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1037,6 +1069,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1069,6 +1102,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1101,6 +1135,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1133,6 +1168,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1165,6 +1201,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1197,6 +1234,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1219,6 +1257,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1226,15 +1273,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1340,6 +1378,13 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1371,44 +1416,6 @@
       </font>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1504,6 +1511,13 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="double">
+          <color rgb="FF3F3F3F"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1517,15 +1531,8 @@
       </font>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="double">
-          <color rgb="FF3F3F3F"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1537,19 +1544,179 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="13"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1599,6 +1766,221 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1630,350 +2012,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -2659,468 +2697,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Epoch,Trainable Parameters</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Epoch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparison!$A$3:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Model-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Model-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Model-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Model-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Model-5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$B$3:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0EF7-4A3E-8D3A-C9136559D5DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Trainable parameters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparison!$A$3:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Model-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Model-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Model-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Model-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Model-5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$3:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>11052</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14967</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9696</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10680</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10848</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0EF7-4A3E-8D3A-C9136559D5DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="608125968"/>
-        <c:axId val="608132200"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="608125968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="608132200"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="608132200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="608125968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
               <a:t>Val_accuracy,Epoch</a:t>
             </a:r>
           </a:p>
@@ -3550,6 +3126,353 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Validation Accuracy vs Trainable</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> parameters</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Validation Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparison!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10680</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparison!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>99.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F604-47C2-B69E-426A90F384F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="617181680"/>
+        <c:axId val="617182664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="617181680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617182664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="617182664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617181680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4690,7 +4613,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4717,8 +4640,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4819,7 +4742,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4851,10 +4774,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4894,22 +4817,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5014,8 +4938,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5147,19 +5071,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5173,6 +5098,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5232,42 +5168,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1577340</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E35B2A-B51A-4CFF-B0F0-98177FD7C153}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -5296,6 +5196,42 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1577340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B115553-3E11-4062-8E70-660A758F6CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
@@ -5306,15 +5242,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58598415-31B5-405B-8876-AF42B41C8999}" name="Table1" displayName="Table1" ref="A5:F28" totalsRowShown="0" headerRowDxfId="32" dataDxfId="42" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58598415-31B5-405B-8876-AF42B41C8999}" name="Table1" displayName="Table1" ref="A5:F28" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" tableBorderDxfId="45">
   <autoFilter ref="A5:F28" xr:uid="{58598415-31B5-405B-8876-AF42B41C8999}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00B4860C-7F40-4263-BD86-099F71E99703}" name="Layer (type)" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{5DFBDC61-EA65-4CC0-B9B5-FA289DC72A78}" name="Output Shape" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{1717240B-33E7-49B3-ABAF-F0330663CDA3}" name="Param #" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{FBF54A56-6BEF-4361-BAB8-8B42897ADD3F}" name="Filter Size" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{00B4860C-7F40-4263-BD86-099F71E99703}" name="Layer (type)" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{5DFBDC61-EA65-4CC0-B9B5-FA289DC72A78}" name="Output Shape" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{1717240B-33E7-49B3-ABAF-F0330663CDA3}" name="Param #" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{FBF54A56-6BEF-4361-BAB8-8B42897ADD3F}" name="Filter Size" dataDxfId="41"/>
     <tableColumn id="5" xr3:uid="{870B577D-85DA-4C16-B774-C4D6DD0A06D8}" name="Caluculation" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{289561C3-08F4-4BFE-A9FC-1F2F27465586}" name="Trainable Parameters" dataDxfId="41">
+    <tableColumn id="6" xr3:uid="{289561C3-08F4-4BFE-A9FC-1F2F27465586}" name="Trainable Parameters" dataDxfId="39">
       <calculatedColumnFormula>(3*3+1)*10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5323,43 +5259,43 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CD91A0BB-B475-4D2C-B805-C0B71C4A6CF7}" name="Table3" displayName="Table3" ref="A5:C25" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CD91A0BB-B475-4D2C-B805-C0B71C4A6CF7}" name="Table3" displayName="Table3" ref="A5:C25" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
   <autoFilter ref="A5:C25" xr:uid="{CD91A0BB-B475-4D2C-B805-C0B71C4A6CF7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B7F68BCD-F333-4372-96DD-C2C39DAE4917}" name="Layer (type)" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{53872511-5165-4A84-BEDC-BE6CA56C43A0}" name="Output Shape" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{F20F0165-8C1E-4F84-A066-8B04FF0817F3}" name="Param #" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{B7F68BCD-F333-4372-96DD-C2C39DAE4917}" name="Layer (type)" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{53872511-5165-4A84-BEDC-BE6CA56C43A0}" name="Output Shape" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{F20F0165-8C1E-4F84-A066-8B04FF0817F3}" name="Param #" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{40B82DBD-963C-474D-957B-4DD267297E2C}" name="Table2" displayName="Table2" ref="A5:C31" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{40B82DBD-963C-474D-957B-4DD267297E2C}" name="Table2" displayName="Table2" ref="A5:C31" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A5:C31" xr:uid="{40B82DBD-963C-474D-957B-4DD267297E2C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{995D8092-38E2-4EEE-8557-A416736781E9}" name="Layer (type)" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{C133D2FC-0963-41F3-8883-A23F22AA6580}" name="Output Shape" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{2C0561AC-3026-4491-86BD-323D918812CB}" name="Param #" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{995D8092-38E2-4EEE-8557-A416736781E9}" name="Layer (type)" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{C133D2FC-0963-41F3-8883-A23F22AA6580}" name="Output Shape" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{2C0561AC-3026-4491-86BD-323D918812CB}" name="Param #" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{65EC5909-ADCE-4C14-B5FF-1FB8DE92D443}" name="Table4" displayName="Table4" ref="A5:C31" totalsRowShown="0" headerRowDxfId="20" dataDxfId="24" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{65EC5909-ADCE-4C14-B5FF-1FB8DE92D443}" name="Table4" displayName="Table4" ref="A5:C31" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A5:C31" xr:uid="{65EC5909-ADCE-4C14-B5FF-1FB8DE92D443}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0E6465BD-CE33-4001-9864-F5E57741B0C1}" name="Layer (type)" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{70688831-B773-433C-8153-CEA3F6BC19D1}" name="Output Shape" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{E2902D94-845F-4306-8953-370595145AAE}" name="Param #" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{0E6465BD-CE33-4001-9864-F5E57741B0C1}" name="Layer (type)" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{70688831-B773-433C-8153-CEA3F6BC19D1}" name="Output Shape" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{E2902D94-845F-4306-8953-370595145AAE}" name="Param #" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C00F6F4C-D68D-4863-891C-9976F9D17B15}" name="Table5" displayName="Table5" ref="A5:C28" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C00F6F4C-D68D-4863-891C-9976F9D17B15}" name="Table5" displayName="Table5" ref="A5:C28" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A5:C28" xr:uid="{C00F6F4C-D68D-4863-891C-9976F9D17B15}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DF2AA961-11E8-4345-9418-7AC8F181C68B}" name="Layer (type)" dataDxfId="16"/>
@@ -5371,7 +5307,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D4B22C74-22FC-4344-95B5-1467B8014B74}" name="Table6" displayName="Table6" ref="A2:I7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D4B22C74-22FC-4344-95B5-1467B8014B74}" name="Table6" displayName="Table6" ref="A2:I7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A2:I7" xr:uid="{D4B22C74-22FC-4344-95B5-1467B8014B74}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{5E9C3F9E-2DE3-49D4-96F4-D69348F1D61E}" name="Models" dataDxfId="10"/>
@@ -5689,7 +5625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD99DE95-82DF-4E02-8131-C96AE2084E8B}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -5699,63 +5635,63 @@
     <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5772,11 +5708,11 @@
       <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" ref="F6:F28" si="0">(3*3+1)*10</f>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6" si="0">(3*3+1)*10</f>
         <v>100</v>
       </c>
     </row>
@@ -5791,10 +5727,10 @@
         <v>40</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f>4*10/2</f>
         <v>20</v>
       </c>
@@ -5810,8 +5746,8 @@
         <v>0</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5828,10 +5764,10 @@
       <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f>(3*3*10+1)*16</f>
         <v>1456</v>
       </c>
@@ -5847,10 +5783,10 @@
         <v>64</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f>4*16/2</f>
         <v>32</v>
       </c>
@@ -5866,8 +5802,8 @@
         <v>0</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5882,10 +5818,10 @@
         <v>170</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f>(1*1*16+1)*10</f>
         <v>170</v>
       </c>
@@ -5901,8 +5837,8 @@
         <v>0</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5919,10 +5855,10 @@
       <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f>(3*3*10+1)*14</f>
         <v>1274</v>
       </c>
@@ -5938,10 +5874,10 @@
         <v>56</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f>14*4/2</f>
         <v>28</v>
       </c>
@@ -5957,10 +5893,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5977,10 +5913,10 @@
       <c r="D17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f>(3*3*14+1)*14</f>
         <v>1778</v>
       </c>
@@ -5996,10 +5932,10 @@
         <v>56</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f>4*14/2</f>
         <v>28</v>
       </c>
@@ -6015,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6035,10 +5971,10 @@
       <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f>(5*5*14+1)*12</f>
         <v>4212</v>
       </c>
@@ -6054,10 +5990,10 @@
         <v>48</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f>4*12/2</f>
         <v>24</v>
       </c>
@@ -6073,8 +6009,8 @@
         <v>0</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6091,10 +6027,10 @@
       <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f>(4*4*12+1)*10</f>
         <v>1930</v>
       </c>
@@ -6110,8 +6046,8 @@
         <v>0</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6126,8 +6062,8 @@
         <v>0</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6138,8 +6074,8 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -6148,8 +6084,8 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
         <f>SUM(F6:F25)</f>
         <v>11052</v>
       </c>
@@ -6161,8 +6097,8 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6196,247 +6132,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <v>1456</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="17">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>1274</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>9618</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>2250</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6466,313 +6402,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>1456</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>1274</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>1778</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>1524</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>1308</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>1930</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="9"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="9"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6796,44 +6732,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="1" width="34.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7139,37 +7075,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7430,199 +7366,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA98F1D-3532-4702-B6E0-DC003005DB9A}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="35" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="37">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="37">
         <v>11052</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="37">
         <v>132</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="37">
         <f>SUM(C3+D3)</f>
         <v>11184</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="38">
         <v>99.36</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="37">
         <v>99.26</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="37">
         <v>2.02</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="39">
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="37">
         <v>30</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="37">
         <v>14967</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="37">
         <v>108</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="37">
         <f t="shared" ref="E4:E7" si="0">SUM(C4+D4)</f>
         <v>15075</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="38">
         <v>99.66</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="37">
         <v>99.27</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="37">
         <v>1.02</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="39">
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="37">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="37">
         <v>9696</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="37">
         <v>156</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="37">
         <f t="shared" si="0"/>
         <v>9852</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="38">
         <v>99.18</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="38">
         <v>99.41</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="38">
         <v>2.37</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="40">
         <v>2.06</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="37">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="37">
         <v>10680</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="37">
         <v>164</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="37">
         <f t="shared" si="0"/>
         <v>10844</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="38">
         <v>99.19</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="38">
         <v>99.34</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="38">
         <v>2.4700000000000002</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="40">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="42">
         <v>25</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="42">
         <v>10848</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="42">
         <v>132</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="42">
         <f t="shared" si="0"/>
         <v>10980</v>
       </c>
